--- a/html/charm-finder/charm-mods.xlsx
+++ b/html/charm-finder/charm-mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology\Drive\GitHub\JustExileThings\html\charm-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E223DC44-5AAF-4BA6-8D94-385853A9652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3EEC6-7AE3-45FE-9775-09BFFD8F9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="30" windowWidth="38520" windowHeight="12030" xr2:uid="{14DC885A-69EC-4E76-AB19-C1EAD6A80126}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{14DC885A-69EC-4E76-AB19-C1EAD6A80126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1690,14 +1690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305CC71-141C-484E-819D-D7798C70F2A4}">
   <dimension ref="A1:L243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1212083058</v>
+        <v>4237190083</v>
       </c>
       <c r="B142" t="s">
         <v>29</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1212083058</v>
+        <v>4237190083</v>
       </c>
       <c r="B143" t="s">
         <v>29</v>

--- a/html/charm-finder/charm-mods.xlsx
+++ b/html/charm-finder/charm-mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology\Drive\GitHub\JustExileThings\html\charm-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3EEC6-7AE3-45FE-9775-09BFFD8F9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C09DE-F5E2-4E3D-99AE-8C1BE5B5630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{14DC885A-69EC-4E76-AB19-C1EAD6A80126}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$243</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="431">
   <si>
     <t>Berserker's</t>
   </si>
@@ -1327,6 +1327,9 @@
   </si>
   <si>
     <t>(6-10)% chance to inflict Withered for 2 seconds on Hit</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -1688,11 +1691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305CC71-141C-484E-819D-D7798C70F2A4}">
-  <dimension ref="A1:L243"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,15 +1705,16 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="122.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="78.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>239</v>
       </c>
@@ -1727,28 +1731,31 @@
         <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1381557885</v>
       </c>
@@ -1764,17 +1771,20 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>240</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1000</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1381557885</v>
       </c>
@@ -1790,17 +1800,20 @@
       <c r="E3">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>241</v>
       </c>
-      <c r="H3">
-        <v>500</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2723101291</v>
       </c>
@@ -1816,17 +1829,20 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>242</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2723101291</v>
       </c>
@@ -1842,17 +1858,20 @@
       <c r="E5">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>243</v>
       </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1166971727</v>
       </c>
@@ -1868,23 +1887,26 @@
       <c r="E6">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>0.61</v>
+      </c>
+      <c r="G6" t="s">
         <v>244</v>
       </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
       <c r="I6">
         <v>250</v>
       </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="J6">
+        <v>250</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1166971727</v>
       </c>
@@ -1900,23 +1922,26 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="s">
         <v>245</v>
       </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
       <c r="I7">
         <v>500</v>
       </c>
-      <c r="K7">
-        <v>1</v>
+      <c r="J7">
+        <v>500</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>74338099</v>
       </c>
@@ -1932,17 +1957,17 @@
       <c r="E8">
         <v>81</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>246</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1369840970</v>
       </c>
@@ -1958,17 +1983,17 @@
       <c r="E9">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>247</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4286031492</v>
       </c>
@@ -1984,23 +2009,23 @@
       <c r="E10">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>248</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>50</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3481736410</v>
       </c>
@@ -2016,23 +2041,26 @@
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
         <v>249</v>
       </c>
-      <c r="G11">
-        <v>250</v>
-      </c>
       <c r="H11">
         <v>250</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="I11">
+        <v>250</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3481736410</v>
       </c>
@@ -2048,23 +2076,26 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12">
-        <v>500</v>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>250</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="I12">
+        <v>500</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2448279015</v>
       </c>
@@ -2080,17 +2111,20 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
         <v>251</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1000</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2448279015</v>
       </c>
@@ -2106,17 +2140,20 @@
       <c r="E14">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
         <v>252</v>
       </c>
-      <c r="G14">
-        <v>500</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3094501804</v>
       </c>
@@ -2132,17 +2169,20 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
         <v>253</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1000</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3094501804</v>
       </c>
@@ -2158,17 +2198,17 @@
       <c r="E16">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>254</v>
       </c>
-      <c r="I16">
-        <v>500</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2818854203</v>
       </c>
@@ -2184,23 +2224,26 @@
       <c r="E17">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
         <v>255</v>
       </c>
-      <c r="G17">
-        <v>250</v>
-      </c>
       <c r="H17">
         <v>250</v>
       </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="I17">
+        <v>250</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2818854203</v>
       </c>
@@ -2216,23 +2259,26 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
         <v>256</v>
       </c>
-      <c r="G18">
-        <v>500</v>
-      </c>
       <c r="H18">
         <v>500</v>
       </c>
-      <c r="J18">
-        <v>1</v>
+      <c r="I18">
+        <v>500</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3362812763</v>
       </c>
@@ -2248,17 +2294,20 @@
       <c r="E19">
         <v>83</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>257</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3362812763</v>
       </c>
@@ -2274,17 +2323,20 @@
       <c r="E20">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
         <v>258</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>240642724</v>
       </c>
@@ -2300,17 +2352,20 @@
       <c r="E21">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
         <v>259</v>
       </c>
-      <c r="G21">
-        <v>250</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>250</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>240642724</v>
       </c>
@@ -2326,17 +2381,20 @@
       <c r="E22">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
         <v>260</v>
       </c>
-      <c r="G22">
-        <v>500</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>500</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2530372417</v>
       </c>
@@ -2352,23 +2410,26 @@
       <c r="E23">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
         <v>261</v>
       </c>
-      <c r="G23">
-        <v>250</v>
-      </c>
       <c r="H23">
         <v>250</v>
       </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="I23">
+        <v>250</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2530372417</v>
       </c>
@@ -2384,23 +2445,26 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
         <v>262</v>
       </c>
-      <c r="G24">
-        <v>500</v>
-      </c>
       <c r="H24">
         <v>500</v>
       </c>
-      <c r="J24">
-        <v>1</v>
+      <c r="I24">
+        <v>500</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3243270997</v>
       </c>
@@ -2416,23 +2480,26 @@
       <c r="E25">
         <v>60</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
         <v>263</v>
       </c>
-      <c r="G25">
-        <v>250</v>
-      </c>
       <c r="H25">
         <v>250</v>
       </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="I25">
+        <v>250</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3243270997</v>
       </c>
@@ -2448,23 +2515,26 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
         <v>264</v>
       </c>
-      <c r="G26">
-        <v>500</v>
-      </c>
       <c r="H26">
         <v>500</v>
       </c>
-      <c r="J26">
-        <v>1</v>
+      <c r="I26">
+        <v>500</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>115351487</v>
       </c>
@@ -2480,17 +2550,20 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>186</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1000</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>115351487</v>
       </c>
@@ -2506,17 +2579,20 @@
       <c r="E28">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
         <v>187</v>
       </c>
-      <c r="H28">
-        <v>500</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>500</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2384457007</v>
       </c>
@@ -2532,23 +2608,23 @@
       <c r="E29">
         <v>45</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>265</v>
       </c>
-      <c r="G29">
-        <v>250</v>
-      </c>
       <c r="H29">
         <v>250</v>
       </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="I29">
+        <v>250</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3133323410</v>
       </c>
@@ -2564,23 +2640,26 @@
       <c r="E30">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
         <v>266</v>
-      </c>
-      <c r="G30">
-        <v>25</v>
       </c>
       <c r="H30">
         <v>25</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="I30">
+        <v>25</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3133323410</v>
       </c>
@@ -2596,23 +2675,26 @@
       <c r="E31">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
         <v>267</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
       </c>
       <c r="H31">
         <v>50</v>
       </c>
-      <c r="J31">
-        <v>1</v>
+      <c r="I31">
+        <v>50</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2221570601</v>
       </c>
@@ -2628,23 +2710,26 @@
       <c r="E32">
         <v>60</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
         <v>268</v>
       </c>
-      <c r="H32">
-        <v>250</v>
-      </c>
       <c r="I32">
         <v>250</v>
       </c>
-      <c r="K32">
-        <v>1</v>
+      <c r="J32">
+        <v>250</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2221570601</v>
       </c>
@@ -2660,23 +2745,26 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
         <v>269</v>
       </c>
-      <c r="H33">
-        <v>500</v>
-      </c>
       <c r="I33">
         <v>500</v>
       </c>
-      <c r="K33">
-        <v>1</v>
+      <c r="J33">
+        <v>500</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4204320922</v>
       </c>
@@ -2692,23 +2780,26 @@
       <c r="E34">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
         <v>270</v>
       </c>
-      <c r="G34">
-        <v>250</v>
-      </c>
       <c r="H34">
         <v>250</v>
       </c>
-      <c r="J34">
-        <v>1</v>
+      <c r="I34">
+        <v>250</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4204320922</v>
       </c>
@@ -2724,23 +2815,26 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
         <v>271</v>
       </c>
-      <c r="G35">
-        <v>500</v>
-      </c>
       <c r="H35">
         <v>500</v>
       </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="I35">
+        <v>500</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1453771408</v>
       </c>
@@ -2756,23 +2850,26 @@
       <c r="E36">
         <v>60</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
         <v>272</v>
       </c>
-      <c r="G36">
-        <v>250</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
         <v>250</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1453771408</v>
       </c>
@@ -2788,23 +2885,26 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
         <v>273</v>
       </c>
-      <c r="G37">
-        <v>500</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
         <v>500</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1436284579</v>
       </c>
@@ -2820,23 +2920,23 @@
       <c r="E38">
         <v>45</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>194</v>
       </c>
-      <c r="H38">
-        <v>250</v>
-      </c>
       <c r="I38">
         <v>250</v>
       </c>
-      <c r="K38">
-        <v>1</v>
+      <c r="J38">
+        <v>250</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2289189129</v>
       </c>
@@ -2852,23 +2952,26 @@
       <c r="E39">
         <v>60</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>274</v>
       </c>
-      <c r="H39">
-        <v>250</v>
-      </c>
       <c r="I39">
         <v>250</v>
       </c>
-      <c r="K39">
-        <v>1</v>
+      <c r="J39">
+        <v>250</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2289189129</v>
       </c>
@@ -2884,23 +2987,26 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
         <v>275</v>
       </c>
-      <c r="H40">
-        <v>500</v>
-      </c>
       <c r="I40">
         <v>500</v>
       </c>
-      <c r="K40">
-        <v>1</v>
+      <c r="J40">
+        <v>500</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1741279188</v>
       </c>
@@ -2916,23 +3022,26 @@
       <c r="E41">
         <v>72</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
         <v>276</v>
-      </c>
-      <c r="H41">
-        <v>125</v>
       </c>
       <c r="I41">
         <v>125</v>
       </c>
-      <c r="K41">
-        <v>1</v>
+      <c r="J41">
+        <v>125</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1741279188</v>
       </c>
@@ -2948,23 +3057,26 @@
       <c r="E42">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
         <v>277</v>
       </c>
-      <c r="H42">
-        <v>250</v>
-      </c>
       <c r="I42">
         <v>250</v>
       </c>
-      <c r="K42">
-        <v>1</v>
+      <c r="J42">
+        <v>250</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3410306164</v>
       </c>
@@ -2980,23 +3092,26 @@
       <c r="E43">
         <v>72</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
         <v>278</v>
-      </c>
-      <c r="H43">
-        <v>125</v>
       </c>
       <c r="I43">
         <v>125</v>
       </c>
-      <c r="K43">
-        <v>1</v>
+      <c r="J43">
+        <v>125</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3410306164</v>
       </c>
@@ -3012,23 +3127,26 @@
       <c r="E44">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
         <v>279</v>
       </c>
-      <c r="H44">
-        <v>250</v>
-      </c>
       <c r="I44">
         <v>250</v>
       </c>
-      <c r="K44">
-        <v>1</v>
+      <c r="J44">
+        <v>250</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1870732546</v>
       </c>
@@ -3044,23 +3162,26 @@
       <c r="E45">
         <v>60</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
         <v>280</v>
       </c>
-      <c r="G45">
-        <v>250</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
         <v>250</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1870732546</v>
       </c>
@@ -3076,23 +3197,26 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
         <v>281</v>
       </c>
-      <c r="G46">
-        <v>500</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
         <v>500</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3132227798</v>
       </c>
@@ -3108,23 +3232,26 @@
       <c r="E47">
         <v>60</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
         <v>282</v>
       </c>
-      <c r="H47">
-        <v>250</v>
-      </c>
       <c r="I47">
         <v>250</v>
       </c>
-      <c r="K47">
-        <v>1</v>
+      <c r="J47">
+        <v>250</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3132227798</v>
       </c>
@@ -3140,23 +3267,26 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
         <v>283</v>
       </c>
-      <c r="H48">
-        <v>500</v>
-      </c>
       <c r="I48">
         <v>500</v>
       </c>
-      <c r="K48">
-        <v>1</v>
+      <c r="J48">
+        <v>500</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1763939859</v>
       </c>
@@ -3172,17 +3302,20 @@
       <c r="E49">
         <v>70</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
         <v>284</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>100</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1763939859</v>
       </c>
@@ -3198,17 +3331,20 @@
       <c r="E50">
         <v>81</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
         <v>285</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>50</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4210011075</v>
       </c>
@@ -3224,17 +3360,20 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
         <v>286</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1000</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4210011075</v>
       </c>
@@ -3250,17 +3389,20 @@
       <c r="E52">
         <v>60</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
         <v>287</v>
       </c>
-      <c r="G52">
-        <v>500</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2171629017</v>
       </c>
@@ -3276,23 +3418,26 @@
       <c r="E53">
         <v>60</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
         <v>288</v>
       </c>
-      <c r="H53">
-        <v>250</v>
-      </c>
       <c r="I53">
         <v>250</v>
       </c>
-      <c r="K53">
-        <v>1</v>
+      <c r="J53">
+        <v>250</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2171629017</v>
       </c>
@@ -3308,23 +3453,26 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
         <v>289</v>
       </c>
-      <c r="H54">
-        <v>500</v>
-      </c>
       <c r="I54">
         <v>500</v>
       </c>
-      <c r="K54">
-        <v>1</v>
+      <c r="J54">
+        <v>500</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2774670797</v>
       </c>
@@ -3340,17 +3488,20 @@
       <c r="E55">
         <v>72</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="I55">
-        <v>250</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>250</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2774670797</v>
       </c>
@@ -3366,17 +3517,20 @@
       <c r="E56">
         <v>45</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="I56">
-        <v>500</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>500</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2474564741</v>
       </c>
@@ -3392,23 +3546,26 @@
       <c r="E57">
         <v>72</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
         <v>39</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>125</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>125</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2474564741</v>
       </c>
@@ -3424,23 +3581,26 @@
       <c r="E58">
         <v>45</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
         <v>38</v>
       </c>
-      <c r="G58">
-        <v>250</v>
-      </c>
-      <c r="I58">
+      <c r="H58">
         <v>250</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4113372195</v>
       </c>
@@ -3456,23 +3616,23 @@
       <c r="E59">
         <v>70</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>91</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>50</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>50</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3135669941</v>
       </c>
@@ -3488,23 +3648,26 @@
       <c r="E60">
         <v>60</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
         <v>292</v>
       </c>
-      <c r="G60">
-        <v>250</v>
-      </c>
-      <c r="I60">
+      <c r="H60">
         <v>250</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3135669941</v>
       </c>
@@ -3520,23 +3683,26 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
         <v>293</v>
       </c>
-      <c r="G61">
-        <v>500</v>
-      </c>
-      <c r="I61">
+      <c r="H61">
         <v>500</v>
       </c>
       <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1004011302</v>
       </c>
@@ -3552,23 +3718,26 @@
       <c r="E62">
         <v>81</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
         <v>158</v>
-      </c>
-      <c r="H62">
-        <v>25</v>
       </c>
       <c r="I62">
         <v>25</v>
       </c>
-      <c r="K62">
-        <v>1</v>
+      <c r="J62">
+        <v>25</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1004011302</v>
       </c>
@@ -3584,23 +3753,26 @@
       <c r="E63">
         <v>70</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
         <v>157</v>
-      </c>
-      <c r="H63">
-        <v>50</v>
       </c>
       <c r="I63">
         <v>50</v>
       </c>
-      <c r="K63">
-        <v>1</v>
+      <c r="J63">
+        <v>50</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>293071889</v>
       </c>
@@ -3616,17 +3788,20 @@
       <c r="E64">
         <v>70</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
         <v>294</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>100</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>293071889</v>
       </c>
@@ -3642,17 +3817,20 @@
       <c r="E65">
         <v>81</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
         <v>295</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>50</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>586568910</v>
       </c>
@@ -3668,17 +3846,20 @@
       <c r="E66">
         <v>72</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
         <v>296</v>
       </c>
-      <c r="I66">
-        <v>250</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>250</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>586568910</v>
       </c>
@@ -3694,17 +3875,20 @@
       <c r="E67">
         <v>45</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
         <v>297</v>
       </c>
-      <c r="I67">
-        <v>500</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>500</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>47954913</v>
       </c>
@@ -3720,23 +3904,26 @@
       <c r="E68">
         <v>60</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68">
+        <v>130</v>
+      </c>
+      <c r="G68" t="s">
         <v>298</v>
       </c>
-      <c r="H68">
-        <v>250</v>
-      </c>
       <c r="I68">
         <v>250</v>
       </c>
-      <c r="K68">
-        <v>1</v>
+      <c r="J68">
+        <v>250</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>47954913</v>
       </c>
@@ -3752,23 +3939,26 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
         <v>299</v>
       </c>
-      <c r="H69">
-        <v>500</v>
-      </c>
       <c r="I69">
         <v>500</v>
       </c>
-      <c r="K69">
-        <v>1</v>
+      <c r="J69">
+        <v>500</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2856328513</v>
       </c>
@@ -3784,23 +3974,26 @@
       <c r="E70">
         <v>60</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70">
+        <v>71</v>
+      </c>
+      <c r="G70" t="s">
         <v>300</v>
       </c>
-      <c r="G70">
-        <v>250</v>
-      </c>
-      <c r="I70">
+      <c r="H70">
         <v>250</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2856328513</v>
       </c>
@@ -3816,23 +4009,26 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
         <v>301</v>
       </c>
-      <c r="G71">
-        <v>500</v>
-      </c>
-      <c r="I71">
+      <c r="H71">
         <v>500</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1857928882</v>
       </c>
@@ -3848,23 +4044,23 @@
       <c r="E72">
         <v>45</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>167</v>
       </c>
-      <c r="H72">
-        <v>250</v>
-      </c>
       <c r="I72">
         <v>250</v>
       </c>
-      <c r="K72">
-        <v>1</v>
+      <c r="J72">
+        <v>250</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4164870816</v>
       </c>
@@ -3880,23 +4076,26 @@
       <c r="E73">
         <v>60</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="H73">
-        <v>250</v>
-      </c>
       <c r="I73">
         <v>250</v>
       </c>
-      <c r="K73">
-        <v>1</v>
+      <c r="J73">
+        <v>250</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4164870816</v>
       </c>
@@ -3912,23 +4111,26 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
         <v>303</v>
       </c>
-      <c r="H74">
-        <v>500</v>
-      </c>
       <c r="I74">
         <v>500</v>
       </c>
-      <c r="K74">
-        <v>1</v>
+      <c r="J74">
+        <v>500</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2996445420</v>
       </c>
@@ -3944,23 +4146,23 @@
       <c r="E75">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>122</v>
       </c>
-      <c r="H75">
-        <v>250</v>
-      </c>
       <c r="I75">
         <v>250</v>
       </c>
-      <c r="K75">
-        <v>1</v>
+      <c r="J75">
+        <v>250</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3772078232</v>
       </c>
@@ -3976,23 +4178,26 @@
       <c r="E76">
         <v>60</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>43</v>
       </c>
-      <c r="G76">
-        <v>250</v>
-      </c>
-      <c r="I76">
+      <c r="H76">
         <v>250</v>
       </c>
       <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3772078232</v>
       </c>
@@ -4008,23 +4213,26 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
         <v>42</v>
       </c>
-      <c r="G77">
-        <v>500</v>
-      </c>
-      <c r="I77">
+      <c r="H77">
         <v>500</v>
       </c>
       <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1963942874</v>
       </c>
@@ -4040,23 +4248,26 @@
       <c r="E78">
         <v>60</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="1">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H78">
-        <v>250</v>
-      </c>
       <c r="I78">
         <v>250</v>
       </c>
-      <c r="K78">
-        <v>1</v>
+      <c r="J78">
+        <v>250</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1963942874</v>
       </c>
@@ -4072,23 +4283,26 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="1">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H79">
-        <v>500</v>
-      </c>
       <c r="I79">
         <v>500</v>
       </c>
-      <c r="K79">
-        <v>1</v>
+      <c r="J79">
+        <v>500</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2524254339</v>
       </c>
@@ -4104,23 +4318,23 @@
       <c r="E80">
         <v>45</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>54</v>
       </c>
-      <c r="G80">
-        <v>250</v>
-      </c>
       <c r="H80">
         <v>250</v>
       </c>
-      <c r="J80">
-        <v>1</v>
+      <c r="I80">
+        <v>250</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2353576063</v>
       </c>
@@ -4136,17 +4350,20 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
         <v>306</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>1000</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2353576063</v>
       </c>
@@ -4162,17 +4379,20 @@
       <c r="E82">
         <v>60</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
         <v>307</v>
       </c>
-      <c r="I82">
-        <v>500</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>500</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>458438597</v>
       </c>
@@ -4188,23 +4408,23 @@
       <c r="E83">
         <v>81</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>308</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>25</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>25</v>
       </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>458438597</v>
       </c>
@@ -4220,23 +4440,26 @@
       <c r="E84">
         <v>70</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
         <v>309</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>50</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>50</v>
       </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2762445213</v>
       </c>
@@ -4252,23 +4475,26 @@
       <c r="E85">
         <v>60</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
         <v>310</v>
       </c>
-      <c r="G85">
-        <v>250</v>
-      </c>
-      <c r="I85">
+      <c r="H85">
         <v>250</v>
       </c>
       <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2762445213</v>
       </c>
@@ -4284,23 +4510,26 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
         <v>311</v>
       </c>
-      <c r="G86">
-        <v>500</v>
-      </c>
-      <c r="I86">
+      <c r="H86">
         <v>500</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>697807915</v>
       </c>
@@ -4316,23 +4545,26 @@
       <c r="E87">
         <v>60</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
         <v>312</v>
       </c>
-      <c r="G87">
-        <v>250</v>
-      </c>
-      <c r="I87">
+      <c r="H87">
         <v>250</v>
       </c>
       <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>697807915</v>
       </c>
@@ -4348,23 +4580,26 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
         <v>313</v>
       </c>
-      <c r="G88">
-        <v>500</v>
-      </c>
-      <c r="I88">
+      <c r="H88">
         <v>500</v>
       </c>
       <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1827932821</v>
       </c>
@@ -4380,17 +4615,17 @@
       <c r="E89">
         <v>45</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>314</v>
       </c>
-      <c r="I89">
-        <v>500</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>500</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>319842716</v>
       </c>
@@ -4406,17 +4641,20 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
         <v>315</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>1000</v>
       </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>319842716</v>
       </c>
@@ -4432,17 +4670,20 @@
       <c r="E91">
         <v>60</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
         <v>316</v>
       </c>
-      <c r="I91">
-        <v>500</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>500</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>240857668</v>
       </c>
@@ -4458,23 +4699,26 @@
       <c r="E92">
         <v>72</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
         <v>170</v>
-      </c>
-      <c r="H92">
-        <v>125</v>
       </c>
       <c r="I92">
         <v>125</v>
       </c>
-      <c r="K92">
-        <v>1</v>
+      <c r="J92">
+        <v>125</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>240857668</v>
       </c>
@@ -4490,23 +4734,26 @@
       <c r="E93">
         <v>45</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
         <v>169</v>
       </c>
-      <c r="H93">
-        <v>250</v>
-      </c>
       <c r="I93">
         <v>250</v>
       </c>
-      <c r="K93">
-        <v>1</v>
+      <c r="J93">
+        <v>250</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1514657588</v>
       </c>
@@ -4522,17 +4769,20 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
         <v>317</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1000</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1514657588</v>
       </c>
@@ -4548,17 +4798,20 @@
       <c r="E95">
         <v>60</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
         <v>318</v>
       </c>
-      <c r="G95">
-        <v>500</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>500</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1582887649</v>
       </c>
@@ -4574,17 +4827,20 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
         <v>319</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1000</v>
       </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1582887649</v>
       </c>
@@ -4600,17 +4856,20 @@
       <c r="E97">
         <v>60</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
         <v>320</v>
       </c>
-      <c r="G97">
-        <v>500</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>500</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2556900184</v>
       </c>
@@ -4626,23 +4885,23 @@
       <c r="E98">
         <v>45</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>81</v>
       </c>
-      <c r="G98">
-        <v>250</v>
-      </c>
-      <c r="I98">
+      <c r="H98">
         <v>250</v>
       </c>
       <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4201339891</v>
       </c>
@@ -4658,23 +4917,26 @@
       <c r="E99">
         <v>60</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G99" t="s">
         <v>321</v>
       </c>
-      <c r="H99">
-        <v>250</v>
-      </c>
       <c r="I99">
         <v>250</v>
       </c>
-      <c r="K99">
-        <v>1</v>
+      <c r="J99">
+        <v>250</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4201339891</v>
       </c>
@@ -4690,23 +4952,26 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100">
+        <v>0.5</v>
+      </c>
+      <c r="G100" t="s">
         <v>322</v>
       </c>
-      <c r="H100">
-        <v>500</v>
-      </c>
       <c r="I100">
         <v>500</v>
       </c>
-      <c r="K100">
-        <v>1</v>
+      <c r="J100">
+        <v>500</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3594640492</v>
       </c>
@@ -4722,17 +4987,20 @@
       <c r="E101">
         <v>1</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
         <v>323</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1000</v>
       </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3594640492</v>
       </c>
@@ -4748,17 +5016,20 @@
       <c r="E102">
         <v>60</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
         <v>324</v>
       </c>
-      <c r="I102">
-        <v>500</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>500</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1144937587</v>
       </c>
@@ -4774,23 +5045,26 @@
       <c r="E103">
         <v>60</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
         <v>325</v>
       </c>
-      <c r="H103">
-        <v>250</v>
-      </c>
       <c r="I103">
         <v>250</v>
       </c>
-      <c r="K103">
-        <v>1</v>
+      <c r="J103">
+        <v>250</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1144937587</v>
       </c>
@@ -4806,23 +5080,26 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
         <v>326</v>
       </c>
-      <c r="H104">
-        <v>500</v>
-      </c>
       <c r="I104">
         <v>500</v>
       </c>
-      <c r="K104">
-        <v>1</v>
+      <c r="J104">
+        <v>500</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>660404777</v>
       </c>
@@ -4838,17 +5115,20 @@
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
         <v>327</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>1000</v>
       </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>660404777</v>
       </c>
@@ -4864,17 +5144,20 @@
       <c r="E106">
         <v>60</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
         <v>328</v>
       </c>
-      <c r="H106">
-        <v>500</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>500</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3306713700</v>
       </c>
@@ -4890,17 +5173,20 @@
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107">
+        <v>-4</v>
+      </c>
+      <c r="G107" t="s">
         <v>205</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>1000</v>
       </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3306713700</v>
       </c>
@@ -4916,17 +5202,20 @@
       <c r="E108">
         <v>60</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108">
+        <v>-6</v>
+      </c>
+      <c r="G108" t="s">
         <v>206</v>
       </c>
-      <c r="I108">
-        <v>500</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>500</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>215242678</v>
       </c>
@@ -4942,17 +5231,17 @@
       <c r="E109">
         <v>70</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>329</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>100</v>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1193283913</v>
       </c>
@@ -4968,17 +5257,17 @@
       <c r="E110">
         <v>81</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>330</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>20</v>
       </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>589437732</v>
       </c>
@@ -4994,17 +5283,20 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
         <v>331</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>1000</v>
       </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>589437732</v>
       </c>
@@ -5020,17 +5312,20 @@
       <c r="E112">
         <v>60</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
         <v>332</v>
       </c>
-      <c r="H112">
-        <v>500</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>500</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1166417447</v>
       </c>
@@ -5046,23 +5341,26 @@
       <c r="E113">
         <v>72</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
         <v>333</v>
-      </c>
-      <c r="G113">
-        <v>125</v>
       </c>
       <c r="H113">
         <v>125</v>
       </c>
-      <c r="J113">
-        <v>1</v>
+      <c r="I113">
+        <v>125</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1166417447</v>
       </c>
@@ -5078,23 +5376,26 @@
       <c r="E114">
         <v>45</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
         <v>334</v>
       </c>
-      <c r="G114">
-        <v>250</v>
-      </c>
       <c r="H114">
         <v>250</v>
       </c>
-      <c r="J114">
-        <v>1</v>
+      <c r="I114">
+        <v>250</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2323242761</v>
       </c>
@@ -5110,17 +5411,20 @@
       <c r="E115">
         <v>72</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
         <v>335</v>
       </c>
-      <c r="H115">
-        <v>250</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>250</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2323242761</v>
       </c>
@@ -5136,17 +5440,20 @@
       <c r="E116">
         <v>45</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
         <v>336</v>
       </c>
-      <c r="H116">
-        <v>500</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>500</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4205704547</v>
       </c>
@@ -5162,23 +5469,23 @@
       <c r="E117">
         <v>70</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>337</v>
-      </c>
-      <c r="G117">
-        <v>50</v>
       </c>
       <c r="H117">
         <v>50</v>
       </c>
-      <c r="J117">
-        <v>1</v>
+      <c r="I117">
+        <v>50</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2109043683</v>
       </c>
@@ -5194,17 +5501,20 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
         <v>226</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>1000</v>
       </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2109043683</v>
       </c>
@@ -5220,17 +5530,20 @@
       <c r="E119">
         <v>60</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
         <v>227</v>
       </c>
-      <c r="I119">
-        <v>500</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>500</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>986397080</v>
       </c>
@@ -5246,17 +5559,20 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
         <v>338</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>1000</v>
       </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>986397080</v>
       </c>
@@ -5272,17 +5588,20 @@
       <c r="E121">
         <v>60</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>339</v>
       </c>
-      <c r="G121">
-        <v>500</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>500</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>800141891</v>
       </c>
@@ -5298,17 +5617,20 @@
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
         <v>340</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>1000</v>
       </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>800141891</v>
       </c>
@@ -5324,17 +5646,20 @@
       <c r="E123">
         <v>60</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
         <v>341</v>
       </c>
-      <c r="I123">
-        <v>500</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>500</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1367119630</v>
       </c>
@@ -5350,17 +5675,17 @@
       <c r="E124">
         <v>45</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>221</v>
       </c>
-      <c r="I124">
-        <v>500</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>500</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3425951133</v>
       </c>
@@ -5376,23 +5701,23 @@
       <c r="E125">
         <v>81</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>342</v>
-      </c>
-      <c r="G125">
-        <v>10</v>
       </c>
       <c r="H125">
         <v>10</v>
       </c>
-      <c r="J125">
-        <v>1</v>
+      <c r="I125">
+        <v>10</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2770801535</v>
       </c>
@@ -5408,17 +5733,20 @@
       <c r="E126">
         <v>1</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
         <v>343</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>1000</v>
       </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2770801535</v>
       </c>
@@ -5434,17 +5762,20 @@
       <c r="E127">
         <v>60</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127" t="s">
         <v>344</v>
       </c>
-      <c r="G127">
-        <v>500</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>500</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3561837752</v>
       </c>
@@ -5460,17 +5791,20 @@
       <c r="E128">
         <v>72</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
         <v>345</v>
       </c>
-      <c r="G128">
-        <v>250</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>250</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3561837752</v>
       </c>
@@ -5486,17 +5820,20 @@
       <c r="E129">
         <v>45</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129" t="s">
         <v>346</v>
       </c>
-      <c r="G129">
-        <v>500</v>
-      </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>500</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2023107756</v>
       </c>
@@ -5512,23 +5849,26 @@
       <c r="E130">
         <v>60</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
         <v>347</v>
       </c>
-      <c r="H130">
-        <v>250</v>
-      </c>
       <c r="I130">
         <v>250</v>
       </c>
-      <c r="K130">
-        <v>1</v>
+      <c r="J130">
+        <v>250</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2023107756</v>
       </c>
@@ -5544,23 +5884,26 @@
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
         <v>348</v>
       </c>
-      <c r="H131">
-        <v>500</v>
-      </c>
       <c r="I131">
         <v>500</v>
       </c>
-      <c r="K131">
-        <v>1</v>
+      <c r="J131">
+        <v>500</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3148570142</v>
       </c>
@@ -5576,17 +5919,20 @@
       <c r="E132">
         <v>1</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
         <v>349</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>1000</v>
       </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3148570142</v>
       </c>
@@ -5602,17 +5948,20 @@
       <c r="E133">
         <v>60</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
         <v>350</v>
       </c>
-      <c r="H133">
-        <v>500</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>500</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1242155304</v>
       </c>
@@ -5628,23 +5977,26 @@
       <c r="E134">
         <v>60</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
         <v>351</v>
       </c>
-      <c r="G134">
-        <v>250</v>
-      </c>
-      <c r="I134">
+      <c r="H134">
         <v>250</v>
       </c>
       <c r="J134">
-        <v>1</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1242155304</v>
       </c>
@@ -5660,23 +6012,26 @@
       <c r="E135">
         <v>1</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
         <v>352</v>
       </c>
-      <c r="G135">
-        <v>500</v>
-      </c>
-      <c r="I135">
+      <c r="H135">
         <v>500</v>
       </c>
       <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44972811</v>
       </c>
@@ -5692,17 +6047,20 @@
       <c r="E136">
         <v>72</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
         <v>353</v>
       </c>
-      <c r="G136">
-        <v>250</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>250</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>44972811</v>
       </c>
@@ -5718,17 +6076,20 @@
       <c r="E137">
         <v>45</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
         <v>354</v>
       </c>
-      <c r="G137">
-        <v>500</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>500</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2564857472</v>
       </c>
@@ -5744,17 +6105,20 @@
       <c r="E138">
         <v>70</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
         <v>139</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>100</v>
       </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2564857472</v>
       </c>
@@ -5770,17 +6134,20 @@
       <c r="E139">
         <v>81</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
         <v>140</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>50</v>
       </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1291726336</v>
       </c>
@@ -5796,23 +6163,26 @@
       <c r="E140">
         <v>60</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
         <v>355</v>
       </c>
-      <c r="G140">
-        <v>250</v>
-      </c>
       <c r="H140">
         <v>250</v>
       </c>
-      <c r="J140">
-        <v>1</v>
+      <c r="I140">
+        <v>250</v>
       </c>
       <c r="K140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1291726336</v>
       </c>
@@ -5828,23 +6198,26 @@
       <c r="E141">
         <v>1</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
         <v>356</v>
       </c>
-      <c r="G141">
-        <v>500</v>
-      </c>
       <c r="H141">
         <v>500</v>
       </c>
-      <c r="J141">
-        <v>1</v>
+      <c r="I141">
+        <v>500</v>
       </c>
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4237190083</v>
       </c>
@@ -5860,23 +6233,26 @@
       <c r="E142">
         <v>72</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
         <v>357</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>125</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>125</v>
       </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4237190083</v>
       </c>
@@ -5892,23 +6268,26 @@
       <c r="E143">
         <v>45</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
         <v>358</v>
       </c>
-      <c r="G143">
-        <v>250</v>
-      </c>
-      <c r="I143">
+      <c r="H143">
         <v>250</v>
       </c>
       <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2663376056</v>
       </c>
@@ -5924,23 +6303,26 @@
       <c r="E144">
         <v>60</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
         <v>359</v>
       </c>
-      <c r="G144">
-        <v>250</v>
-      </c>
-      <c r="I144">
+      <c r="H144">
         <v>250</v>
       </c>
       <c r="J144">
-        <v>1</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2663376056</v>
       </c>
@@ -5956,23 +6338,26 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
         <v>360</v>
       </c>
-      <c r="G145">
-        <v>500</v>
-      </c>
-      <c r="I145">
+      <c r="H145">
         <v>500</v>
       </c>
       <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>803185500</v>
       </c>
@@ -5988,17 +6373,20 @@
       <c r="E146">
         <v>1</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
         <v>129</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>1000</v>
       </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>803185500</v>
       </c>
@@ -6014,17 +6402,20 @@
       <c r="E147">
         <v>60</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
         <v>130</v>
       </c>
-      <c r="H147">
-        <v>500</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>500</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3101897388</v>
       </c>
@@ -6040,23 +6431,26 @@
       <c r="E148">
         <v>72</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
         <v>361</v>
-      </c>
-      <c r="G148">
-        <v>125</v>
       </c>
       <c r="H148">
         <v>125</v>
       </c>
-      <c r="J148">
-        <v>1</v>
+      <c r="I148">
+        <v>125</v>
       </c>
       <c r="K148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3101897388</v>
       </c>
@@ -6072,23 +6466,26 @@
       <c r="E149">
         <v>45</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
         <v>362</v>
       </c>
-      <c r="G149">
-        <v>250</v>
-      </c>
       <c r="H149">
         <v>250</v>
       </c>
-      <c r="J149">
-        <v>1</v>
+      <c r="I149">
+        <v>250</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4124805414</v>
       </c>
@@ -6104,23 +6501,26 @@
       <c r="E150">
         <v>72</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
         <v>363</v>
-      </c>
-      <c r="G150">
-        <v>125</v>
       </c>
       <c r="H150">
         <v>125</v>
       </c>
-      <c r="J150">
-        <v>1</v>
+      <c r="I150">
+        <v>125</v>
       </c>
       <c r="K150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4124805414</v>
       </c>
@@ -6136,23 +6536,26 @@
       <c r="E151">
         <v>45</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
         <v>364</v>
       </c>
-      <c r="G151">
-        <v>250</v>
-      </c>
       <c r="H151">
         <v>250</v>
       </c>
-      <c r="J151">
-        <v>1</v>
+      <c r="I151">
+        <v>250</v>
       </c>
       <c r="K151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4095671657</v>
       </c>
@@ -6168,17 +6571,20 @@
       <c r="E152">
         <v>72</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152" t="s">
         <v>365</v>
       </c>
-      <c r="G152">
-        <v>250</v>
-      </c>
-      <c r="J152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>250</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4095671657</v>
       </c>
@@ -6194,17 +6600,20 @@
       <c r="E153">
         <v>45</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
         <v>366</v>
       </c>
-      <c r="G153">
-        <v>500</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>500</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1181501418</v>
       </c>
@@ -6220,17 +6629,20 @@
       <c r="E154">
         <v>1</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154" t="s">
         <v>4</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>1000</v>
       </c>
-      <c r="J154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1181501418</v>
       </c>
@@ -6246,17 +6658,20 @@
       <c r="E155">
         <v>60</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
         <v>5</v>
       </c>
-      <c r="G155">
-        <v>500</v>
-      </c>
-      <c r="J155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>500</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2121424530</v>
       </c>
@@ -6272,23 +6687,26 @@
       <c r="E156">
         <v>60</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
         <v>367</v>
       </c>
-      <c r="H156">
-        <v>250</v>
-      </c>
       <c r="I156">
         <v>250</v>
       </c>
-      <c r="K156">
-        <v>1</v>
+      <c r="J156">
+        <v>250</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2121424530</v>
       </c>
@@ -6304,23 +6722,26 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
         <v>368</v>
       </c>
-      <c r="H157">
-        <v>500</v>
-      </c>
       <c r="I157">
         <v>500</v>
       </c>
-      <c r="K157">
-        <v>1</v>
+      <c r="J157">
+        <v>500</v>
       </c>
       <c r="L157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3706959521</v>
       </c>
@@ -6336,23 +6757,24 @@
       <c r="E158">
         <v>70</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="1"/>
+      <c r="G158" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>50</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>50</v>
       </c>
-      <c r="J158">
-        <v>1</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2268802111</v>
       </c>
@@ -6368,17 +6790,20 @@
       <c r="E159">
         <v>72</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159" t="s">
         <v>370</v>
       </c>
-      <c r="I159">
-        <v>250</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>250</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2268802111</v>
       </c>
@@ -6394,17 +6819,20 @@
       <c r="E160">
         <v>45</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160" t="s">
         <v>371</v>
       </c>
-      <c r="I160">
-        <v>500</v>
-      </c>
-      <c r="L160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>500</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3119612865</v>
       </c>
@@ -6420,17 +6848,20 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
         <v>372</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>1000</v>
       </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3119612865</v>
       </c>
@@ -6446,17 +6877,20 @@
       <c r="E162">
         <v>60</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
         <v>373</v>
       </c>
-      <c r="I162">
-        <v>500</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>500</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3131367308</v>
       </c>
@@ -6472,17 +6906,20 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
         <v>374</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>1000</v>
       </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3131367308</v>
       </c>
@@ -6498,17 +6935,20 @@
       <c r="E164">
         <v>60</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
         <v>375</v>
       </c>
-      <c r="I164">
-        <v>500</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>500</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3663580344</v>
       </c>
@@ -6524,17 +6964,20 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s">
         <v>176</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>1000</v>
       </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3663580344</v>
       </c>
@@ -6550,17 +6993,20 @@
       <c r="E166">
         <v>60</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166">
+        <v>51</v>
+      </c>
+      <c r="G166" t="s">
         <v>177</v>
       </c>
-      <c r="H166">
-        <v>500</v>
-      </c>
-      <c r="K166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>500</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3875592188</v>
       </c>
@@ -6576,17 +7022,17 @@
       <c r="E167">
         <v>70</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>376</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>100</v>
       </c>
-      <c r="J167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1541516339</v>
       </c>
@@ -6602,17 +7048,17 @@
       <c r="E168">
         <v>70</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>377</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>100</v>
       </c>
-      <c r="K168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3730497630</v>
       </c>
@@ -6628,23 +7074,23 @@
       <c r="E169">
         <v>45</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>26</v>
       </c>
-      <c r="G169">
-        <v>250</v>
-      </c>
-      <c r="I169">
+      <c r="H169">
         <v>250</v>
       </c>
       <c r="J169">
-        <v>1</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2480873346</v>
       </c>
@@ -6660,17 +7106,17 @@
       <c r="E170">
         <v>70</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>236</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>100</v>
       </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4031527864</v>
       </c>
@@ -6686,23 +7132,23 @@
       <c r="E171">
         <v>45</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>378</v>
       </c>
-      <c r="G171">
-        <v>250</v>
-      </c>
-      <c r="I171">
+      <c r="H171">
         <v>250</v>
       </c>
       <c r="J171">
-        <v>1</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3953699641</v>
       </c>
@@ -6718,17 +7164,17 @@
       <c r="E172">
         <v>45</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>132</v>
       </c>
-      <c r="H172">
-        <v>500</v>
-      </c>
-      <c r="K172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>500</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2953854044</v>
       </c>
@@ -6744,23 +7190,23 @@
       <c r="E173">
         <v>70</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>172</v>
-      </c>
-      <c r="H173">
-        <v>50</v>
       </c>
       <c r="I173">
         <v>50</v>
       </c>
-      <c r="K173">
-        <v>1</v>
+      <c r="J173">
+        <v>50</v>
       </c>
       <c r="L173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3014823981</v>
       </c>
@@ -6776,23 +7222,26 @@
       <c r="E174">
         <v>60</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
         <v>35</v>
       </c>
-      <c r="G174">
-        <v>250</v>
-      </c>
-      <c r="I174">
+      <c r="H174">
         <v>250</v>
       </c>
       <c r="J174">
-        <v>1</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3014823981</v>
       </c>
@@ -6808,23 +7257,26 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
         <v>34</v>
       </c>
-      <c r="G175">
-        <v>500</v>
-      </c>
-      <c r="I175">
+      <c r="H175">
         <v>500</v>
       </c>
       <c r="J175">
-        <v>1</v>
-      </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2071120096</v>
       </c>
@@ -6840,17 +7292,20 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
         <v>214</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>1000</v>
       </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2071120096</v>
       </c>
@@ -6866,17 +7321,20 @@
       <c r="E177">
         <v>60</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
         <v>215</v>
       </c>
-      <c r="I177">
-        <v>500</v>
-      </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>500</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3151397056</v>
       </c>
@@ -6892,17 +7350,20 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s">
         <v>150</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>1000</v>
       </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3151397056</v>
       </c>
@@ -6918,17 +7379,20 @@
       <c r="E179">
         <v>60</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s">
         <v>151</v>
       </c>
-      <c r="H179">
-        <v>500</v>
-      </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>500</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>665823128</v>
       </c>
@@ -6944,17 +7408,20 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
         <v>379</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>1000</v>
       </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>665823128</v>
       </c>
@@ -6970,17 +7437,20 @@
       <c r="E181">
         <v>60</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
         <v>380</v>
       </c>
-      <c r="H181">
-        <v>500</v>
-      </c>
-      <c r="K181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>500</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3511523149</v>
       </c>
@@ -6996,23 +7466,26 @@
       <c r="E182">
         <v>60</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182">
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
         <v>381</v>
       </c>
-      <c r="G182">
-        <v>250</v>
-      </c>
       <c r="H182">
         <v>250</v>
       </c>
-      <c r="J182">
-        <v>1</v>
+      <c r="I182">
+        <v>250</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3511523149</v>
       </c>
@@ -7028,23 +7501,26 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
         <v>382</v>
       </c>
-      <c r="G183">
-        <v>500</v>
-      </c>
       <c r="H183">
         <v>500</v>
       </c>
-      <c r="J183">
-        <v>1</v>
+      <c r="I183">
+        <v>500</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3035931505</v>
       </c>
@@ -7060,23 +7536,23 @@
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>383</v>
       </c>
-      <c r="G184">
-        <v>500</v>
-      </c>
       <c r="H184">
         <v>500</v>
       </c>
-      <c r="J184">
-        <v>1</v>
+      <c r="I184">
+        <v>500</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2918708827</v>
       </c>
@@ -7092,17 +7568,20 @@
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
         <v>384</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>1000</v>
       </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2918708827</v>
       </c>
@@ -7118,17 +7597,20 @@
       <c r="E186">
         <v>60</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
         <v>385</v>
       </c>
-      <c r="H186">
-        <v>500</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>500</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3753703249</v>
       </c>
@@ -7144,17 +7626,20 @@
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
         <v>386</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>1000</v>
       </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3753703249</v>
       </c>
@@ -7170,17 +7655,20 @@
       <c r="E188">
         <v>60</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188">
+        <v>9</v>
+      </c>
+      <c r="G188" t="s">
         <v>387</v>
       </c>
-      <c r="H188">
-        <v>500</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>500</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>249805317</v>
       </c>
@@ -7196,23 +7684,23 @@
       <c r="E189">
         <v>45</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>388</v>
       </c>
-      <c r="G189">
-        <v>250</v>
-      </c>
       <c r="H189">
         <v>250</v>
       </c>
-      <c r="J189">
-        <v>1</v>
+      <c r="I189">
+        <v>250</v>
       </c>
       <c r="K189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>86516932</v>
       </c>
@@ -7228,23 +7716,23 @@
       <c r="E190">
         <v>60</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>389</v>
       </c>
-      <c r="H190">
-        <v>250</v>
-      </c>
       <c r="I190">
         <v>250</v>
       </c>
-      <c r="K190">
-        <v>1</v>
+      <c r="J190">
+        <v>250</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>86516932</v>
       </c>
@@ -7260,23 +7748,26 @@
       <c r="E191">
         <v>1</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
         <v>390</v>
       </c>
-      <c r="H191">
-        <v>500</v>
-      </c>
       <c r="I191">
         <v>500</v>
       </c>
-      <c r="K191">
-        <v>1</v>
+      <c r="J191">
+        <v>500</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3814876985</v>
       </c>
@@ -7292,23 +7783,26 @@
       <c r="E192">
         <v>60</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192">
+        <v>16</v>
+      </c>
+      <c r="G192" t="s">
         <v>391</v>
       </c>
-      <c r="H192">
-        <v>250</v>
-      </c>
       <c r="I192">
         <v>250</v>
       </c>
-      <c r="K192">
-        <v>1</v>
+      <c r="J192">
+        <v>250</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3814876985</v>
       </c>
@@ -7324,23 +7818,26 @@
       <c r="E193">
         <v>1</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
         <v>392</v>
       </c>
-      <c r="H193">
-        <v>500</v>
-      </c>
       <c r="I193">
         <v>500</v>
       </c>
-      <c r="K193">
-        <v>1</v>
+      <c r="J193">
+        <v>500</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2140446632</v>
       </c>
@@ -7356,17 +7853,20 @@
       <c r="E194">
         <v>72</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
         <v>135</v>
       </c>
-      <c r="H194">
-        <v>250</v>
-      </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>250</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2140446632</v>
       </c>
@@ -7382,17 +7882,20 @@
       <c r="E195">
         <v>45</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="G195" t="s">
         <v>134</v>
       </c>
-      <c r="H195">
-        <v>500</v>
-      </c>
-      <c r="K195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>500</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2083727359</v>
       </c>
@@ -7408,17 +7911,20 @@
       <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
         <v>393</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>1000</v>
       </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2083727359</v>
       </c>
@@ -7434,17 +7940,20 @@
       <c r="E197">
         <v>60</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197">
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
         <v>394</v>
       </c>
-      <c r="H197">
-        <v>500</v>
-      </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>500</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>308309328</v>
       </c>
@@ -7460,23 +7969,26 @@
       <c r="E198">
         <v>60</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198">
+        <v>7</v>
+      </c>
+      <c r="G198" t="s">
         <v>395</v>
       </c>
-      <c r="H198">
-        <v>250</v>
-      </c>
       <c r="I198">
         <v>250</v>
       </c>
-      <c r="K198">
-        <v>1</v>
+      <c r="J198">
+        <v>250</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>308309328</v>
       </c>
@@ -7492,23 +8004,26 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
         <v>396</v>
       </c>
-      <c r="H199">
-        <v>500</v>
-      </c>
       <c r="I199">
         <v>500</v>
       </c>
-      <c r="K199">
-        <v>1</v>
+      <c r="J199">
+        <v>500</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1790196169</v>
       </c>
@@ -7524,23 +8039,26 @@
       <c r="E200">
         <v>60</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200">
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
         <v>65</v>
       </c>
-      <c r="G200">
-        <v>250</v>
-      </c>
       <c r="H200">
         <v>250</v>
       </c>
-      <c r="J200">
-        <v>1</v>
+      <c r="I200">
+        <v>250</v>
       </c>
       <c r="K200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1790196169</v>
       </c>
@@ -7556,23 +8074,26 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
         <v>64</v>
       </c>
-      <c r="G201">
-        <v>500</v>
-      </c>
       <c r="H201">
         <v>500</v>
       </c>
-      <c r="J201">
-        <v>1</v>
+      <c r="I201">
+        <v>500</v>
       </c>
       <c r="K201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3184268466</v>
       </c>
@@ -7588,17 +8109,20 @@
       <c r="E202">
         <v>72</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202" t="s">
         <v>397</v>
       </c>
-      <c r="H202">
-        <v>250</v>
-      </c>
-      <c r="K202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>250</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3184268466</v>
       </c>
@@ -7614,17 +8138,20 @@
       <c r="E203">
         <v>45</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203" t="s">
         <v>398</v>
       </c>
-      <c r="H203">
-        <v>500</v>
-      </c>
-      <c r="K203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>500</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2900084972</v>
       </c>
@@ -7640,17 +8167,20 @@
       <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
         <v>399</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>1000</v>
       </c>
-      <c r="L204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2900084972</v>
       </c>
@@ -7666,17 +8196,20 @@
       <c r="E205">
         <v>60</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
         <v>400</v>
       </c>
-      <c r="I205">
-        <v>500</v>
-      </c>
-      <c r="L205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>500</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3721828090</v>
       </c>
@@ -7692,17 +8225,20 @@
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206" t="s">
         <v>401</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>1000</v>
       </c>
-      <c r="L206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3721828090</v>
       </c>
@@ -7718,17 +8254,20 @@
       <c r="E207">
         <v>60</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207" t="s">
         <v>402</v>
       </c>
-      <c r="I207">
-        <v>500</v>
-      </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>500</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2202201823</v>
       </c>
@@ -7744,17 +8283,17 @@
       <c r="E208">
         <v>45</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>183</v>
       </c>
-      <c r="H208">
-        <v>500</v>
-      </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>500</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2189230542</v>
       </c>
@@ -7770,23 +8309,23 @@
       <c r="E209">
         <v>45</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>403</v>
       </c>
-      <c r="G209">
-        <v>250</v>
-      </c>
-      <c r="I209">
+      <c r="H209">
         <v>250</v>
       </c>
       <c r="J209">
-        <v>1</v>
-      </c>
-      <c r="L209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>681709908</v>
       </c>
@@ -7802,23 +8341,26 @@
       <c r="E210">
         <v>72</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
         <v>404</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>125</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>125</v>
       </c>
-      <c r="J210">
-        <v>1</v>
-      </c>
-      <c r="L210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>681709908</v>
       </c>
@@ -7834,23 +8376,26 @@
       <c r="E211">
         <v>45</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211">
+        <v>3</v>
+      </c>
+      <c r="G211" t="s">
         <v>405</v>
       </c>
-      <c r="G211">
-        <v>250</v>
-      </c>
-      <c r="I211">
+      <c r="H211">
         <v>250</v>
       </c>
       <c r="J211">
-        <v>1</v>
-      </c>
-      <c r="L211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1712740586</v>
       </c>
@@ -7866,17 +8411,20 @@
       <c r="E212">
         <v>72</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
         <v>406</v>
       </c>
-      <c r="I212">
-        <v>250</v>
-      </c>
-      <c r="L212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <v>250</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1712740586</v>
       </c>
@@ -7892,17 +8440,20 @@
       <c r="E213">
         <v>45</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
         <v>407</v>
       </c>
-      <c r="I213">
-        <v>500</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>500</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1952992278</v>
       </c>
@@ -7918,23 +8469,26 @@
       <c r="E214">
         <v>60</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214">
+        <v>6</v>
+      </c>
+      <c r="G214" t="s">
         <v>408</v>
       </c>
-      <c r="G214">
-        <v>250</v>
-      </c>
-      <c r="I214">
+      <c r="H214">
         <v>250</v>
       </c>
       <c r="J214">
-        <v>1</v>
-      </c>
-      <c r="L214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1952992278</v>
       </c>
@@ -7950,23 +8504,26 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215">
+        <v>4</v>
+      </c>
+      <c r="G215" t="s">
         <v>409</v>
       </c>
-      <c r="G215">
-        <v>500</v>
-      </c>
-      <c r="I215">
+      <c r="H215">
         <v>500</v>
       </c>
       <c r="J215">
-        <v>1</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1493325653</v>
       </c>
@@ -7982,23 +8539,26 @@
       <c r="E216">
         <v>81</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
         <v>410</v>
-      </c>
-      <c r="H216">
-        <v>25</v>
       </c>
       <c r="I216">
         <v>25</v>
       </c>
-      <c r="K216">
-        <v>1</v>
+      <c r="J216">
+        <v>25</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1493325653</v>
       </c>
@@ -8014,23 +8574,26 @@
       <c r="E217">
         <v>70</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="G217" t="s">
         <v>411</v>
-      </c>
-      <c r="H217">
-        <v>50</v>
       </c>
       <c r="I217">
         <v>50</v>
       </c>
-      <c r="K217">
-        <v>1</v>
+      <c r="J217">
+        <v>50</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3002506763</v>
       </c>
@@ -8046,17 +8609,20 @@
       <c r="E218">
         <v>1</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
         <v>412</v>
       </c>
-      <c r="I218">
+      <c r="J218">
         <v>1000</v>
       </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3002506763</v>
       </c>
@@ -8072,17 +8638,20 @@
       <c r="E219">
         <v>60</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
         <v>413</v>
       </c>
-      <c r="I219">
-        <v>500</v>
-      </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <v>500</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3680664274</v>
       </c>
@@ -8098,17 +8667,20 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220">
+        <v>5</v>
+      </c>
+      <c r="G220" t="s">
         <v>414</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>1000</v>
       </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>3680664274</v>
       </c>
@@ -8124,17 +8696,20 @@
       <c r="E221">
         <v>60</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
         <v>415</v>
       </c>
-      <c r="H221">
-        <v>500</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>500</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2543977012</v>
       </c>
@@ -8150,23 +8725,26 @@
       <c r="E222">
         <v>60</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222">
+        <v>31</v>
+      </c>
+      <c r="G222" t="s">
         <v>416</v>
       </c>
-      <c r="G222">
-        <v>250</v>
-      </c>
-      <c r="I222">
+      <c r="H222">
         <v>250</v>
       </c>
       <c r="J222">
-        <v>1</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2543977012</v>
       </c>
@@ -8182,23 +8760,26 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
         <v>417</v>
       </c>
-      <c r="G223">
-        <v>500</v>
-      </c>
-      <c r="I223">
+      <c r="H223">
         <v>500</v>
       </c>
       <c r="J223">
-        <v>1</v>
-      </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>734614379</v>
       </c>
@@ -8214,17 +8795,20 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224" t="s">
         <v>418</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>1000</v>
       </c>
-      <c r="J224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>734614379</v>
       </c>
@@ -8240,17 +8824,20 @@
       <c r="E225">
         <v>60</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225">
+        <v>6</v>
+      </c>
+      <c r="G225" t="s">
         <v>419</v>
       </c>
-      <c r="G225">
-        <v>500</v>
-      </c>
-      <c r="J225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>500</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3058290552</v>
       </c>
@@ -8266,23 +8853,23 @@
       <c r="E226">
         <v>45</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>420</v>
       </c>
-      <c r="G226">
-        <v>250</v>
-      </c>
       <c r="H226">
         <v>250</v>
       </c>
-      <c r="J226">
-        <v>1</v>
+      <c r="I226">
+        <v>250</v>
       </c>
       <c r="K226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2983926876</v>
       </c>
@@ -8298,23 +8885,23 @@
       <c r="E227">
         <v>70</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>67</v>
-      </c>
-      <c r="G227">
-        <v>50</v>
       </c>
       <c r="H227">
         <v>50</v>
       </c>
-      <c r="J227">
-        <v>1</v>
+      <c r="I227">
+        <v>50</v>
       </c>
       <c r="K227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1887508417</v>
       </c>
@@ -8330,23 +8917,23 @@
       <c r="E228">
         <v>70</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>102</v>
-      </c>
-      <c r="G228">
-        <v>50</v>
       </c>
       <c r="H228">
         <v>50</v>
       </c>
-      <c r="J228">
-        <v>1</v>
+      <c r="I228">
+        <v>50</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2971900104</v>
       </c>
@@ -8362,17 +8949,17 @@
       <c r="E229">
         <v>45</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>60</v>
       </c>
-      <c r="G229">
-        <v>500</v>
-      </c>
-      <c r="J229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>500</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4253777805</v>
       </c>
@@ -8388,23 +8975,26 @@
       <c r="E230">
         <v>72</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230">
+        <v>7</v>
+      </c>
+      <c r="G230" t="s">
         <v>421</v>
-      </c>
-      <c r="H230">
-        <v>125</v>
       </c>
       <c r="I230">
         <v>125</v>
       </c>
-      <c r="K230">
-        <v>1</v>
+      <c r="J230">
+        <v>125</v>
       </c>
       <c r="L230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4253777805</v>
       </c>
@@ -8420,23 +9010,26 @@
       <c r="E231">
         <v>45</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="G231" t="s">
         <v>422</v>
       </c>
-      <c r="H231">
-        <v>250</v>
-      </c>
       <c r="I231">
         <v>250</v>
       </c>
-      <c r="K231">
-        <v>1</v>
+      <c r="J231">
+        <v>250</v>
       </c>
       <c r="L231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3272283603</v>
       </c>
@@ -8452,23 +9045,26 @@
       <c r="E232">
         <v>60</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s">
         <v>423</v>
       </c>
-      <c r="G232">
-        <v>250</v>
-      </c>
       <c r="H232">
         <v>250</v>
       </c>
-      <c r="J232">
-        <v>1</v>
+      <c r="I232">
+        <v>250</v>
       </c>
       <c r="K232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3272283603</v>
       </c>
@@ -8484,23 +9080,26 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
         <v>424</v>
       </c>
-      <c r="G233">
-        <v>500</v>
-      </c>
       <c r="H233">
         <v>500</v>
       </c>
-      <c r="J233">
-        <v>1</v>
+      <c r="I233">
+        <v>500</v>
       </c>
       <c r="K233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>825316273</v>
       </c>
@@ -8516,17 +9115,20 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234">
+        <v>5</v>
+      </c>
+      <c r="G234" t="s">
         <v>425</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>1000</v>
       </c>
-      <c r="J234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>825316273</v>
       </c>
@@ -8542,17 +9144,20 @@
       <c r="E235">
         <v>60</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235">
+        <v>8</v>
+      </c>
+      <c r="G235" t="s">
         <v>426</v>
       </c>
-      <c r="G235">
-        <v>500</v>
-      </c>
-      <c r="J235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>500</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2076876595</v>
       </c>
@@ -8568,17 +9173,17 @@
       <c r="E236">
         <v>45</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>427</v>
       </c>
-      <c r="G236">
-        <v>500</v>
-      </c>
-      <c r="J236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>500</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2291122510</v>
       </c>
@@ -8594,23 +9199,23 @@
       <c r="E237">
         <v>70</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>104</v>
-      </c>
-      <c r="G237">
-        <v>50</v>
       </c>
       <c r="H237">
         <v>50</v>
       </c>
-      <c r="J237">
-        <v>1</v>
+      <c r="I237">
+        <v>50</v>
       </c>
       <c r="K237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3608339129</v>
       </c>
@@ -8626,17 +9231,20 @@
       <c r="E238">
         <v>1</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238" t="s">
         <v>7</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>1000</v>
       </c>
-      <c r="J238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3608339129</v>
       </c>
@@ -8652,17 +9260,20 @@
       <c r="E239">
         <v>60</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="G239" t="s">
         <v>8</v>
       </c>
-      <c r="G239">
-        <v>500</v>
-      </c>
-      <c r="J239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>500</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2545584555</v>
       </c>
@@ -8678,17 +9289,20 @@
       <c r="E240">
         <v>1</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240">
+        <v>7</v>
+      </c>
+      <c r="G240" t="s">
         <v>143</v>
       </c>
-      <c r="H240">
+      <c r="I240">
         <v>1000</v>
       </c>
-      <c r="K240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2545584555</v>
       </c>
@@ -8704,17 +9318,20 @@
       <c r="E241">
         <v>60</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
         <v>144</v>
       </c>
-      <c r="H241">
-        <v>500</v>
-      </c>
-      <c r="K241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>500</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1957711555</v>
       </c>
@@ -8730,17 +9347,20 @@
       <c r="E242">
         <v>72</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242">
+        <v>11</v>
+      </c>
+      <c r="G242" t="s">
         <v>428</v>
       </c>
-      <c r="H242">
-        <v>250</v>
-      </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>250</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1957711555</v>
       </c>
@@ -8756,18 +9376,25 @@
       <c r="E243">
         <v>45</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243">
+        <v>6</v>
+      </c>
+      <c r="G243" t="s">
         <v>429</v>
       </c>
-      <c r="H243">
-        <v>500</v>
-      </c>
-      <c r="K243">
+      <c r="I243">
+        <v>500</v>
+      </c>
+      <c r="L243">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{1305CC71-141C-484E-819D-D7798C70F2A4}"/>
+  <autoFilter ref="A1:M243" xr:uid="{1305CC71-141C-484E-819D-D7798C70F2A4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M243">
+      <sortCondition ref="D1:D243"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
